--- a/biology/Botanique/Apeiba_petoumo/Apeiba_petoumo.xlsx
+++ b/biology/Botanique/Apeiba_petoumo/Apeiba_petoumo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apeiba petoumo est une espèce d'arbre de la famille des Malvaceae, (ou anciennement des Tiliaceae selon la (classification de Cronquist). 
 En Guyane, on l'appelle peigne-macaque, bois bouchon ou bois calou (créole).
@@ -512,9 +524,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « APEIBA (Petoumo). foliis ovatis, ſubtùs incanis, floribus racemoſis, luteis. (Tabula 115.)
 Arbor trunco quadraginta-pedali, ad ſummitatem ramoſo ; ramis &amp; ramusculis latè diſperſis. Folia alterna, ovata, acuta, integerrima, ſubcordata, petiolata, ſupernè glabra, viridia, infernè incana, nervis hirſutis, rufeſcentibus. Stipule binæ, oppofitæ, oblongæ, acutæ, deciduæ. Flores racemoſi ; racemi oppoſiti folio. Corolla flava. Fructus ; capſula coriacea, depreſſa, orbiculata, ſetis villoſis, vireſcentibus undique tecta, multilocularis. Semina numéroſiſſima, ſubrotunda, compreſſa, placentæ carnoſæ affixa.
 Florebat, fructumque ferebat Octobri. 
